--- a/bind.20230419174818516.xlsx
+++ b/bind.20230419174818516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="626" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="789" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,19 @@
     <sheet name="record" sheetId="7" r:id="rId8"/>
     <sheet name="push_hb3" sheetId="3" r:id="rId9"/>
     <sheet name="streamfind" sheetId="12" r:id="rId10"/>
+    <sheet name="Capacity" sheetId="13" r:id="rId11"/>
+    <sheet name="ActivityZone" sheetId="14" r:id="rId12"/>
+    <sheet name="P2PSpeed" sheetId="15" r:id="rId13"/>
+    <sheet name="P2PSpeed_HB3" sheetId="16" r:id="rId14"/>
+    <sheet name="record_HB3" sheetId="17" r:id="rId15"/>
+    <sheet name="record_time" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>规则</t>
   </si>
@@ -130,7 +136,13 @@
     <t>APP_CMD_START_REALTIME_MEDIA.*ret:</t>
   </si>
   <si>
-    <t>1.总计主动出流</t>
+    <t>2.总计主动出流结果</t>
+  </si>
+  <si>
+    <t>parse_app_js_cmd:.*] - APP_CMD_START_REALTIME_MEDIA session_id</t>
+  </si>
+  <si>
+    <t>3.出流请求</t>
   </si>
   <si>
     <t>zyy camera_.*, dev_type:.*, has_mdetect_even:.*, has_human:0x.*, record_file_state:.*, frame_num:.*, discard_record_flag:0x.*</t>
@@ -223,10 +235,97 @@
     <t>push_RecordMsg:.*] #### event_time</t>
   </si>
   <si>
-    <t>zx_packup_power_performance:9263] - camera_0, SN:T8210P</t>
+    <t>zx_packup_power_performance:.*] - camera_0, SN:T8210P</t>
   </si>
   <si>
     <t>1.出流埋点统计</t>
+  </si>
+  <si>
+    <t>error wyss</t>
+  </si>
+  <si>
+    <t>\bCapacity=</t>
+  </si>
+  <si>
+    <t>心跳电量</t>
+  </si>
+  <si>
+    <t>zx_p2p_command_read.*APP_CMD_SET_MDETECTPARAM.*</t>
+  </si>
+  <si>
+    <t>APP设置热区</t>
+  </si>
+  <si>
+    <t>zx_p2p_command_read.*pRecvP2pData.*</t>
+  </si>
+  <si>
+    <t>热区参数</t>
+  </si>
+  <si>
+    <t>zx_p2p_media_write.*camera_.*up_speed</t>
+  </si>
+  <si>
+    <t>P2P上传速度</t>
+  </si>
+  <si>
+    <t>P2P_MediaWrite.*up_speed</t>
+  </si>
+  <si>
+    <t>HB3 Speed</t>
+  </si>
+  <si>
+    <t>camera_.*ES_COMMON_TYPE_CONNECTED, pir_status.*</t>
+  </si>
+  <si>
+    <t>1.连上基站</t>
+  </si>
+  <si>
+    <t>get ES_COMMON_TYPE_PIR_TRIGGER.*sensitivity_idx</t>
+  </si>
+  <si>
+    <t>2.pir触发</t>
+  </si>
+  <si>
+    <t>eufy_hal.c:eufysdk_video_callback</t>
+  </si>
+  <si>
+    <t>3.视频流</t>
+  </si>
+  <si>
+    <t>Baize_StrategyDealPir.*start deal pir info, pirEvt</t>
+  </si>
+  <si>
+    <t>3.处理pir事件</t>
+  </si>
+  <si>
+    <t>Record_MgrTaskEntry.*Camera.*recv event.*</t>
+  </si>
+  <si>
+    <t>4.录像收到事件</t>
+  </si>
+  <si>
+    <t>Record_StartEventUpdate.*start record</t>
+  </si>
+  <si>
+    <t>5.开始录像</t>
+  </si>
+  <si>
+    <t>Strategy_ForceUpdateStreamByModuleChannel.*stop_reason</t>
+  </si>
+  <si>
+    <t>6.停止录像</t>
+  </si>
+  <si>
+    <t>Baize_StrategyModEntry.*camera_.*llRecordID.*stopreason.*</t>
+  </si>
+  <si>
+    <t>7.停止录像原因</t>
+  </si>
+  <si>
+    <t>Baize_StrategyModEntry.*camera_.*record_time</t>
+  </si>
+  <si>
+    <t>录像时长统计</t>
   </si>
 </sst>
 </file>
@@ -1338,13 +1437,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="52.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
@@ -1363,10 +1462,319 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="54.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="53.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="42.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="61.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="50.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1518,16 +1926,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="72.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1558,6 +1966,14 @@
       </c>
       <c r="B3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1571,8 +1987,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1594,50 +2010,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +2068,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1674,18 +2090,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1725,10 +2141,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +2159,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1768,34 +2184,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +2226,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1834,10 +2250,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1884,12 +2300,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
